--- a/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47CC1BD-B429-4A06-8CDD-F48DD587B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDB325A-408D-4531-A596-FCDCE3BD9E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1E9D06-E143-4387-A503-940721A0F4BD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E3466D67-B231-4E6C-A20D-94B2C5C205C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -119,6 +119,63 @@
     <t>7,48%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -176,63 +233,6 @@
     <t>5,66%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
     <t>95,17%</t>
   </si>
   <si>
@@ -326,6 +326,60 @@
     <t>21,06%</t>
   </si>
   <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
     <t>97,56%</t>
   </si>
   <si>
@@ -380,60 +434,6 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
     <t>96,23%</t>
   </si>
   <si>
@@ -509,6 +509,54 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
     <t>97,07%</t>
   </si>
   <si>
@@ -563,54 +611,6 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
     <t>97,35%</t>
   </si>
   <si>
@@ -686,6 +686,54 @@
     <t>16,79%</t>
   </si>
   <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
     <t>96,36%</t>
   </si>
   <si>
@@ -732,54 +780,6 @@
   </si>
   <si>
     <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
   </si>
   <si>
     <t>96,61%</t>
@@ -1225,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFC8903-3746-4856-9D90-3316555D67EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F285E6-F2F5-4D68-AB7B-036B081ADB98}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="D7" s="7">
-        <v>220496</v>
+        <v>104127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1513,10 +1513,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>214623</v>
+        <v>94669</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1528,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>300</v>
       </c>
       <c r="N7" s="7">
-        <v>435118</v>
+        <v>198796</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1549,10 +1549,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>9884</v>
+        <v>7589</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1564,10 +1564,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>8007</v>
+        <v>11401</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1582,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="N8" s="7">
-        <v>17892</v>
+        <v>18990</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1600,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1615,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1630,10 +1630,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1653,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>104127</v>
+        <v>220496</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1668,10 +1668,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="I10" s="7">
-        <v>94669</v>
+        <v>214623</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1683,10 +1683,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>300</v>
+        <v>647</v>
       </c>
       <c r="N10" s="7">
-        <v>198796</v>
+        <v>435118</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1704,10 +1704,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>7589</v>
+        <v>9884</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1719,10 +1719,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>11401</v>
+        <v>8007</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1737,7 +1737,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>18990</v>
+        <v>17892</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1770,10 +1770,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1785,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1847,7 +1847,7 @@
         <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>71</v>
@@ -1901,7 +1901,7 @@
         <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB9A6CE-0046-414B-BD71-A4E3529289AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFCD396-CA56-45DD-A528-F93F49E98AE6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2244,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="D7" s="7">
-        <v>214256</v>
+        <v>124918</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
@@ -2259,10 +2259,10 @@
         <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>207726</v>
+        <v>117286</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>98</v>
@@ -2274,10 +2274,10 @@
         <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>613</v>
+        <v>334</v>
       </c>
       <c r="N7" s="7">
-        <v>421982</v>
+        <v>242205</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>101</v>
@@ -2295,10 +2295,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>5361</v>
+        <v>7760</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>104</v>
@@ -2310,10 +2310,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>5447</v>
+        <v>7839</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>107</v>
@@ -2325,10 +2325,10 @@
         <v>109</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>10808</v>
+        <v>15599</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>110</v>
@@ -2346,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2361,10 +2361,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>213173</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2376,10 +2376,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>432790</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2399,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7">
-        <v>124918</v>
+        <v>214256</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>113</v>
@@ -2414,10 +2414,10 @@
         <v>115</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="I10" s="7">
-        <v>117286</v>
+        <v>207726</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>116</v>
@@ -2429,10 +2429,10 @@
         <v>118</v>
       </c>
       <c r="M10" s="7">
-        <v>334</v>
+        <v>613</v>
       </c>
       <c r="N10" s="7">
-        <v>242205</v>
+        <v>421982</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>119</v>
@@ -2450,10 +2450,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>7760</v>
+        <v>5361</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>122</v>
@@ -2465,10 +2465,10 @@
         <v>124</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>7839</v>
+        <v>5447</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>125</v>
@@ -2480,10 +2480,10 @@
         <v>127</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>15599</v>
+        <v>10808</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>128</v>
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2516,10 +2516,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>213173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2531,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>432790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BDCA5F-3FB3-49F6-B3CB-75D4912EEA8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6BCA0-4781-480E-B130-64AD96A32D8A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,10 +2990,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7">
-        <v>217192</v>
+        <v>130512</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>156</v>
@@ -3005,10 +3005,10 @@
         <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="I7" s="7">
-        <v>216392</v>
+        <v>121760</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>159</v>
@@ -3020,10 +3020,10 @@
         <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="N7" s="7">
-        <v>433584</v>
+        <v>252272</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>162</v>
@@ -3032,7 +3032,7 @@
         <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3041,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>6558</v>
+        <v>3154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8044</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5790</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>12348</v>
+        <v>11198</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>223750</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3107,10 +3107,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3122,10 +3122,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>617</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>445932</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3145,49 +3145,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>130512</v>
+        <v>217192</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>306</v>
+      </c>
+      <c r="I10" s="7">
+        <v>216392</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="7">
-        <v>184</v>
-      </c>
-      <c r="I10" s="7">
-        <v>121760</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>600</v>
+      </c>
+      <c r="N10" s="7">
+        <v>433584</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M10" s="7">
-        <v>370</v>
-      </c>
-      <c r="N10" s="7">
-        <v>252272</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,46 +3196,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>3154</v>
+        <v>6558</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5790</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8044</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>11198</v>
+        <v>12348</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>189</v>
@@ -3247,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>223750</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3262,10 +3262,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3277,10 +3277,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>445932</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3321,7 +3321,7 @@
         <v>348785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>193</v>
@@ -3372,7 +3372,7 @@
         <v>13833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>141</v>
@@ -3463,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32FA70-BD10-4829-954D-59283C5CE3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6AD04A-E352-43C0-913F-0B40B5CAB3F6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,13 +3617,13 @@
         <v>35156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>2440</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>214</v>
@@ -3736,10 +3736,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>367</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>307990</v>
+        <v>120853</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
@@ -3751,10 +3751,10 @@
         <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>269556</v>
+        <v>106635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>218</v>
@@ -3766,16 +3766,16 @@
         <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>731</v>
+        <v>298</v>
       </c>
       <c r="N7" s="7">
-        <v>577545</v>
+        <v>227488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>222</v>
@@ -3787,10 +3787,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>11647</v>
+        <v>2867</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>223</v>
@@ -3802,10 +3802,10 @@
         <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2785</v>
+        <v>4897</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>226</v>
@@ -3817,19 +3817,19 @@
         <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>14433</v>
+        <v>7764</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3853,10 +3853,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3868,10 +3868,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3891,10 +3891,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="D10" s="7">
-        <v>120853</v>
+        <v>307990</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>231</v>
@@ -3906,10 +3906,10 @@
         <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="I10" s="7">
-        <v>106635</v>
+        <v>269556</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>234</v>
@@ -3921,16 +3921,16 @@
         <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>298</v>
+        <v>731</v>
       </c>
       <c r="N10" s="7">
-        <v>227488</v>
+        <v>577545</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>238</v>
@@ -3942,10 +3942,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>2867</v>
+        <v>11647</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>239</v>
@@ -3957,10 +3957,10 @@
         <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4897</v>
+        <v>2785</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>242</v>
@@ -3972,19 +3972,19 @@
         <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>7764</v>
+        <v>14433</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4008,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4023,10 +4023,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDB325A-408D-4531-A596-FCDCE3BD9E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{420FE3A2-A70F-4B82-B900-C4EC3194A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E3466D67-B231-4E6C-A20D-94B2C5C205C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A6B02B-65A9-4FF2-A950-04A6645DFCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,763 +95,865 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -844,7 +964,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -940,39 +1060,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1024,7 +1144,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1135,13 +1255,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1150,6 +1263,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1214,19 +1334,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F285E6-F2F5-4D68-AB7B-036B081ADB98}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3715C-C33A-4481-BD1F-89F42015F0EA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1343,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1358,85 +1498,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21603</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7">
-        <v>41238</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3906</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5799</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>627</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>627</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,153 +1585,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>104127</v>
+        <v>5553</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7070</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7">
+        <v>12623</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>141</v>
-      </c>
-      <c r="I7" s="7">
-        <v>94669</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7">
-        <v>300</v>
-      </c>
-      <c r="N7" s="7">
-        <v>198796</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>7589</v>
+        <v>74865</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>117</v>
+      </c>
+      <c r="I8" s="7">
+        <v>77265</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>232</v>
+      </c>
+      <c r="N8" s="7">
+        <v>152130</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11401</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="7">
-        <v>27</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18990</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,153 +1740,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>220496</v>
+        <v>6914</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7765</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14679</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>318</v>
-      </c>
-      <c r="I10" s="7">
-        <v>214623</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7">
-        <v>647</v>
-      </c>
-      <c r="N10" s="7">
-        <v>435118</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7">
-        <v>9884</v>
+        <v>98805</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>137</v>
+      </c>
+      <c r="I11" s="7">
+        <v>91428</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>285</v>
+      </c>
+      <c r="N11" s="7">
+        <v>190233</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8007</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="7">
-        <v>27</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17892</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,153 +1895,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>519</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>344258</v>
+        <v>5007</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5200</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="7">
-        <v>493</v>
-      </c>
-      <c r="I13" s="7">
-        <v>330895</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10207</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1012</v>
-      </c>
-      <c r="N13" s="7">
-        <v>675153</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>17473</v>
+        <v>168694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>233</v>
+      </c>
+      <c r="I14" s="7">
+        <v>158297</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20035</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>486</v>
+      </c>
+      <c r="N14" s="7">
+        <v>326990</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="7">
-        <v>55</v>
-      </c>
-      <c r="N14" s="7">
-        <v>37508</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,55 +2050,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17473</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20035</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7">
+        <v>37508</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>519</v>
+      </c>
+      <c r="D17" s="7">
+        <v>344258</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>493</v>
+      </c>
+      <c r="I17" s="7">
+        <v>330895</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1012</v>
+      </c>
+      <c r="N17" s="7">
+        <v>675153</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1971,8 +2272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFCD396-CA56-45DD-A528-F93F49E98AE6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D23065-6CED-4DF0-9947-AD31484C308E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1988,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2089,100 +2390,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13037</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14066</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>40</v>
-      </c>
-      <c r="N4" s="7">
-        <v>27103</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>1627</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>2296</v>
+        <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,153 +2492,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>124918</v>
+        <v>4801</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>117286</v>
+        <v>4406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>242205</v>
+        <v>9207</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>7760</v>
+        <v>87263</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7">
         <v>104</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
       <c r="I8" s="7">
-        <v>7839</v>
+        <v>73282</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="N8" s="7">
-        <v>15599</v>
+        <v>160544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,153 +2647,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>214256</v>
+        <v>4921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>207726</v>
+        <v>7763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>613</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>421982</v>
+        <v>12684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>5361</v>
+        <v>127165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7">
-        <v>5447</v>
+        <v>117323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N11" s="7">
-        <v>10808</v>
+        <v>244488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,153 +2802,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>213173</v>
+        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>432790</v>
+        <v>257172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>352212</v>
+        <v>4068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>339079</v>
+        <v>2744</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
-        <v>987</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>691289</v>
+        <v>6812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="D14" s="7">
-        <v>13790</v>
+        <v>137115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>14912</v>
+        <v>145176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="N14" s="7">
-        <v>28703</v>
+        <v>282291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,55 +2957,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13790</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14912</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="7">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28703</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>504</v>
+      </c>
+      <c r="D17" s="7">
+        <v>352212</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>483</v>
+      </c>
+      <c r="I17" s="7">
+        <v>339079</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="7">
+        <v>987</v>
+      </c>
+      <c r="N17" s="7">
+        <v>691289</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>504</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353991</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1028</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719992</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2717,8 +3179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6BCA0-4781-480E-B130-64AD96A32D8A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366947E-8CFD-450B-9A0D-1142E21A3040}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2734,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2835,46 +3297,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10631</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>20374</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2883,52 +3345,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>536</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1819</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,153 +3399,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>130512</v>
+        <v>1248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>121760</v>
+        <v>3887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>252272</v>
+        <v>5135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7">
-        <v>3154</v>
+        <v>80881</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>8044</v>
+        <v>64173</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="N8" s="7">
-        <v>11198</v>
+        <v>145054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,153 +3554,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>217192</v>
+        <v>6137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5428</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="7">
+        <v>17</v>
+      </c>
+      <c r="N10" s="7">
+        <v>11565</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="7">
-        <v>306</v>
-      </c>
-      <c r="I10" s="7">
-        <v>216392</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="7">
-        <v>600</v>
-      </c>
-      <c r="N10" s="7">
-        <v>433584</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>6558</v>
+        <v>143204</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="7">
+        <v>206</v>
+      </c>
+      <c r="I11" s="7">
+        <v>143489</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="7">
+        <v>404</v>
+      </c>
+      <c r="N11" s="7">
+        <v>286693</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5790</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12348</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,153 +3709,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>223750</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>617</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>445932</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>357445</v>
+        <v>2327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>348785</v>
+        <v>4519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
-        <v>1002</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>706230</v>
+        <v>6846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="D14" s="7">
-        <v>9713</v>
+        <v>132078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>13833</v>
+        <v>140586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="N14" s="7">
-        <v>23546</v>
+        <v>272664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,55 +3864,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>182</v>
+      </c>
+      <c r="D15" s="7">
+        <v>134405</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>390</v>
+      </c>
+      <c r="N15" s="7">
+        <v>279510</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9713</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13833</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>23546</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>495</v>
+      </c>
+      <c r="D17" s="7">
+        <v>357445</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="7">
+        <v>507</v>
+      </c>
+      <c r="I17" s="7">
+        <v>348785</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1002</v>
+      </c>
+      <c r="N17" s="7">
+        <v>706230</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>509</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>367158</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>527</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>362618</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1036</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>729776</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3463,8 +4086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6AD04A-E352-43C0-913F-0B40B5CAB3F6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE5E348-1A40-4037-AA6D-ADD48D76F0F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3480,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3581,100 +4204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>20196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>871</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14960</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>871</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>66</v>
-      </c>
-      <c r="N4" s="7">
-        <v>35156</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5284</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5046</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1249</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1191</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
       <c r="N5" s="7">
-        <v>2440</v>
+        <v>10330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,153 +4306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>120853</v>
+        <v>1852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>106635</v>
+        <v>2157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>227488</v>
+        <v>4009</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>2867</v>
+        <v>71530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>4897</v>
+        <v>64913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="N8" s="7">
-        <v>7764</v>
+        <v>136443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,153 +4461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>307990</v>
+        <v>5735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>269556</v>
+        <v>3831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>731</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>577545</v>
+        <v>9566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>11647</v>
+        <v>151472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>2785</v>
+        <v>120293</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="N11" s="7">
-        <v>14433</v>
+        <v>271765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,153 +4616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>449039</v>
+        <v>8177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>391151</v>
+        <v>2013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
-        <v>1095</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>840190</v>
+        <v>10190</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>15764</v>
+        <v>220754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>8873</v>
+        <v>200899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>24636</v>
+        <v>421653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,55 +4771,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15764</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8873</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M16" s="7">
+        <v>29</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24636</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>554</v>
+      </c>
+      <c r="D17" s="7">
+        <v>449039</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="7">
+        <v>541</v>
+      </c>
+      <c r="I17" s="7">
+        <v>391151</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1095</v>
+      </c>
+      <c r="N17" s="7">
+        <v>840190</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420FE3A2-A70F-4B82-B900-C4EC3194A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68B23F9-D661-4E72-9B8C-D7657D96192C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A6B02B-65A9-4FF2-A950-04A6645DFCCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04473DAD-9535-4AB2-8DAE-CC175728BC61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="313">
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,55 +170,55 @@
     <t>6,54%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -227,733 +227,757 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>98,17%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3715C-C33A-4481-BD1F-89F42015F0EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDCDC6D-CD80-423B-8B71-29295D4E5BA4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2272,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D23065-6CED-4DF0-9947-AD31484C308E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D0DC9C-2860-405E-A6F3-498BF85BD741}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2897,7 +2921,7 @@
         <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,10 +2939,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -2927,13 +2951,13 @@
         <v>145176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>410</v>
@@ -2942,13 +2966,13 @@
         <v>282291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3040,13 @@
         <v>13790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3031,13 +3055,13 @@
         <v>14912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3046,13 +3070,13 @@
         <v>28703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3091,13 @@
         <v>352212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -3082,13 +3106,13 @@
         <v>339079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>987</v>
@@ -3097,13 +3121,13 @@
         <v>691289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366947E-8CFD-450B-9A0D-1142E21A3040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CA505E-CE1E-44CA-847E-7D28F7668CED}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3196,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3309,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3357,7 +3381,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3458,13 +3482,13 @@
         <v>1248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3476,10 +3500,10 @@
         <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3488,13 +3512,13 @@
         <v>5135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3533,10 @@
         <v>80881</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3527,10 +3551,10 @@
         <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -3539,13 +3563,13 @@
         <v>145054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3637,13 @@
         <v>6137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3628,13 +3652,13 @@
         <v>5428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3643,13 +3667,13 @@
         <v>11565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3688,13 @@
         <v>143204</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>206</v>
@@ -3679,13 +3703,13 @@
         <v>143489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>404</v>
@@ -3694,13 +3718,13 @@
         <v>286693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3792,13 @@
         <v>2327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3783,13 +3807,13 @@
         <v>4519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3798,13 +3822,13 @@
         <v>6846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3843,13 @@
         <v>132078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3834,13 +3858,13 @@
         <v>140586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -3849,13 +3873,13 @@
         <v>272664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3947,13 @@
         <v>9713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3938,13 +3962,13 @@
         <v>13833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3953,13 +3977,13 @@
         <v>23546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3998,13 @@
         <v>357445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>507</v>
@@ -3989,13 +4013,13 @@
         <v>348785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>1002</v>
@@ -4004,13 +4028,13 @@
         <v>706230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE5E348-1A40-4037-AA6D-ADD48D76F0F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8F9FAD-99A7-4C70-94D5-ABEF42FF4FAB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4103,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4216,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4225,13 +4249,13 @@
         <v>871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4240,13 +4264,13 @@
         <v>871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4288,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4276,10 +4300,10 @@
         <v>5046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4291,10 +4315,10 @@
         <v>10330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4365,13 +4389,13 @@
         <v>1852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4380,13 +4404,13 @@
         <v>2157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4395,13 +4419,13 @@
         <v>4009</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4440,13 @@
         <v>71530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -4431,13 +4455,13 @@
         <v>64913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>204</v>
@@ -4446,13 +4470,13 @@
         <v>136443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4544,13 @@
         <v>5735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4535,13 +4559,13 @@
         <v>3831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4550,13 +4574,13 @@
         <v>9566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4595,13 @@
         <v>151472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -4586,13 +4610,13 @@
         <v>120293</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
@@ -4601,13 +4625,13 @@
         <v>271765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4699,13 @@
         <v>8177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4690,13 +4714,13 @@
         <v>2013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4708,10 +4732,10 @@
         <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4750,13 @@
         <v>220754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -4741,13 +4765,13 @@
         <v>200899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
@@ -4756,13 +4780,13 @@
         <v>421653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4854,13 @@
         <v>15764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4845,13 +4869,13 @@
         <v>8873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4860,13 +4884,13 @@
         <v>24636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4905,13 @@
         <v>449039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>541</v>
@@ -4896,13 +4920,13 @@
         <v>391151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>1095</v>
@@ -4911,13 +4935,13 @@
         <v>840190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68B23F9-D661-4E72-9B8C-D7657D96192C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5BE8A6-F257-4BD5-9203-6A4BF36DE6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04473DAD-9535-4AB2-8DAE-CC175728BC61}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{2697BC98-79CE-458F-BB17-B60DA0450F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="313">
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="309">
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -95,889 +95,877 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>98,05%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDCDC6D-CD80-423B-8B71-29295D4E5BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E6A355-DC18-4DD6-A673-6AD67EE0A358}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,10 +1546,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1573,10 +1561,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1609,25 +1597,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1662,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>5553</v>
+        <v>7070</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1677,10 +1665,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>7070</v>
+        <v>5553</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1713,10 +1701,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>74865</v>
+        <v>77265</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1728,10 +1716,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>77265</v>
+        <v>74865</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1764,25 +1752,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1817,10 +1805,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>6914</v>
+        <v>7765</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1832,10 +1820,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>7765</v>
+        <v>6914</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1868,10 +1856,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7">
-        <v>98805</v>
+        <v>91428</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1883,10 +1871,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I11" s="7">
-        <v>91428</v>
+        <v>98805</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1919,25 +1907,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1975,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>5007</v>
+        <v>5200</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -1990,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5200</v>
+        <v>5007</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2023,10 +2011,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>168694</v>
+        <v>158297</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2038,10 +2026,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="I14" s="7">
-        <v>158297</v>
+        <v>168694</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2074,25 +2062,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2127,10 +2115,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>17473</v>
+        <v>20035</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2142,19 +2130,19 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>20035</v>
+        <v>17473</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2163,13 +2151,13 @@
         <v>37508</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,34 +2166,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>493</v>
+      </c>
+      <c r="D17" s="7">
+        <v>330895</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="7">
         <v>519</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>344258</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>493</v>
-      </c>
-      <c r="I17" s="7">
-        <v>330895</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1012</v>
@@ -2214,13 +2202,13 @@
         <v>675153</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,25 +2217,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2276,7 +2264,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D0DC9C-2860-405E-A6F3-498BF85BD741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF102E4-D0A3-46DB-A7E9-5B1C6113A974}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2426,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2441,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2456,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,31 +2453,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>669</v>
+        <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3298</v>
+        <v>669</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2504,7 +2492,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2516,25 +2504,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2569,34 +2557,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4406</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4801</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4406</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2605,13 +2593,13 @@
         <v>9207</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,34 +2608,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7">
+        <v>73282</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="7">
         <v>117</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>87263</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="7">
-        <v>104</v>
-      </c>
-      <c r="I8" s="7">
-        <v>73282</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2656,13 +2644,13 @@
         <v>160544</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,25 +2659,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2724,34 +2712,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7763</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4921</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7763</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2760,13 +2748,13 @@
         <v>12684</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,34 +2763,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>167</v>
+      </c>
+      <c r="D11" s="7">
+        <v>117323</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="7">
         <v>183</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>127165</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="7">
-        <v>167</v>
-      </c>
-      <c r="I11" s="7">
-        <v>117323</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>350</v>
@@ -2811,13 +2799,13 @@
         <v>244488</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,25 +2814,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>178</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2879,34 +2867,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2744</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4068</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2744</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2915,13 +2903,13 @@
         <v>6812</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,34 +2918,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7">
+        <v>145176</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="7">
         <v>203</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>137115</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="7">
-        <v>207</v>
-      </c>
-      <c r="I14" s="7">
-        <v>145176</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>410</v>
@@ -2966,13 +2954,13 @@
         <v>282291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,25 +2969,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3034,34 +3022,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14912</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>13790</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14912</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3070,13 +3058,13 @@
         <v>28703</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,49 +3073,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>483</v>
+      </c>
+      <c r="D17" s="7">
+        <v>339079</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="7">
         <v>504</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>352212</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="7">
-        <v>483</v>
-      </c>
-      <c r="I17" s="7">
-        <v>339079</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>987</v>
       </c>
       <c r="N17" s="7">
-        <v>691289</v>
+        <v>691290</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,25 +3124,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>504</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3169,7 +3157,7 @@
         <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3183,7 +3171,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CA505E-CE1E-44CA-847E-7D28F7668CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E4881-4092-4330-8150-E9ED31411E7C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3220,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3333,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3348,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3363,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,31 +3360,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3411,7 +3399,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3423,25 +3411,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3476,34 +3464,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3887</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1248</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3887</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3512,13 +3500,13 @@
         <v>5135</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,34 +3515,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64173</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
         <v>116</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>80881</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>98</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64173</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -3563,13 +3551,13 @@
         <v>145054</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,25 +3566,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3631,34 +3619,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5428</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6137</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5428</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3667,13 +3655,13 @@
         <v>11565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,34 +3670,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>206</v>
+      </c>
+      <c r="D11" s="7">
+        <v>143489</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="7">
         <v>198</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>143204</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="7">
-        <v>206</v>
-      </c>
-      <c r="I11" s="7">
-        <v>143489</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>404</v>
@@ -3718,13 +3706,13 @@
         <v>286693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,25 +3721,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3786,34 +3774,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4519</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2327</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4519</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3822,13 +3810,13 @@
         <v>6846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,34 +3825,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>202</v>
+      </c>
+      <c r="D14" s="7">
+        <v>140586</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
         <v>179</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>132078</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="7">
-        <v>202</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140586</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -3873,13 +3861,13 @@
         <v>272664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,25 +3876,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>182</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>134405</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3941,34 +3929,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13833</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>9713</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13833</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3977,13 +3965,13 @@
         <v>23546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,34 +3980,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>507</v>
+      </c>
+      <c r="D17" s="7">
+        <v>348785</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="7">
         <v>495</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>357445</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="7">
-        <v>507</v>
-      </c>
-      <c r="I17" s="7">
-        <v>348785</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>1002</v>
@@ -4028,13 +4016,13 @@
         <v>706230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,25 +4031,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>527</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>509</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>367158</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>527</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362618</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4090,7 +4078,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4110,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8F9FAD-99A7-4C70-94D5-ABEF42FF4FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A171372-D04D-416D-A2F8-58034ECB34DF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4127,7 +4115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4228,49 +4216,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>795</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>871</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>871</v>
+        <v>795</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,46 +4267,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5002</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>5316</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5046</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>10330</v>
+        <v>10318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4330,25 +4318,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4363,7 +4351,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4383,49 +4371,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2192</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>1852</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
       <c r="I7" s="7">
-        <v>2157</v>
+        <v>1863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>4009</v>
+        <v>4054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,49 +4422,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64004</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="D8" s="7">
-        <v>71530</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="7">
-        <v>99</v>
-      </c>
       <c r="I8" s="7">
-        <v>64913</v>
+        <v>75268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>204</v>
       </c>
       <c r="N8" s="7">
-        <v>136443</v>
+        <v>139273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,25 +4473,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4518,7 +4506,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4538,49 +4526,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3741</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>5735</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
       <c r="I10" s="7">
-        <v>3831</v>
+        <v>5935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>9566</v>
+        <v>9676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,49 +4577,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>118162</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
         <v>178</v>
       </c>
-      <c r="D11" s="7">
-        <v>151472</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
       <c r="I11" s="7">
-        <v>120293</v>
+        <v>158853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
       </c>
       <c r="N11" s="7">
-        <v>271765</v>
+        <v>277015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,25 +4628,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4673,7 +4661,7 @@
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4693,49 +4681,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1940</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>8177</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>2013</v>
+        <v>8571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>10190</v>
+        <v>10511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,49 +4732,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>274</v>
+      </c>
+      <c r="D14" s="7">
+        <v>195797</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
         <v>263</v>
       </c>
-      <c r="D14" s="7">
-        <v>220754</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="7">
-        <v>274</v>
-      </c>
       <c r="I14" s="7">
-        <v>200899</v>
+        <v>228637</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>421653</v>
+        <v>424434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,25 +4783,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4828,7 +4816,7 @@
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4848,49 +4836,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8668</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
-        <v>15764</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
       <c r="I16" s="7">
-        <v>8873</v>
+        <v>16369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>24636</v>
+        <v>25037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,49 +4887,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>541</v>
+      </c>
+      <c r="D17" s="7">
+        <v>382965</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" s="7">
         <v>554</v>
       </c>
-      <c r="D17" s="7">
-        <v>449039</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="7">
-        <v>541</v>
-      </c>
       <c r="I17" s="7">
-        <v>391151</v>
+        <v>468075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>1095</v>
       </c>
       <c r="N17" s="7">
-        <v>840190</v>
+        <v>851039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,25 +4938,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4983,7 +4971,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4997,7 +4985,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
